--- a/StructureDefinition-fungal-infection.xlsx
+++ b/StructureDefinition-fungal-infection.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -1076,7 +1076,10 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/fungal-infections</t>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1238,7 +1241,7 @@
     <t>Der Alpha-ID-Code</t>
   </si>
   <si>
-    <t>https://www.medizininformatik-initiative.de/fhir/core/modul-diagnose/ValueSet/diagnoses-sct</t>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/fungal-infections</t>
   </si>
   <si>
     <t>orphanet</t>
@@ -2141,7 +2144,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -8108,11 +8111,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -8145,27 +8150,27 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8280,7 +8285,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8397,7 +8402,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8514,10 +8519,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -8539,16 +8544,16 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>248</v>
@@ -8561,7 +8566,7 @@
         <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>76</v>
@@ -8580,7 +8585,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8633,7 +8638,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8748,7 +8753,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8865,10 +8870,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>108</v>
@@ -8890,13 +8895,13 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>112</v>
@@ -8984,10 +8989,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>108</v>
@@ -9009,13 +9014,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>112</v>
@@ -9103,10 +9108,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>108</v>
@@ -9128,13 +9133,13 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>112</v>
@@ -9222,7 +9227,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9248,7 +9253,7 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>259</v>
@@ -9264,7 +9269,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>76</v>
@@ -9341,7 +9346,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9367,10 +9372,10 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>268</v>
@@ -9458,7 +9463,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9484,7 +9489,7 @@
         <v>167</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>274</v>
@@ -9506,7 +9511,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9554,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -9577,7 +9582,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9696,7 +9701,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9815,10 +9820,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>76</v>
@@ -9840,16 +9845,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>248</v>
@@ -9862,7 +9867,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9881,7 +9886,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9934,7 +9939,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10049,7 +10054,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10166,7 +10171,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10192,7 +10197,7 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>259</v>
@@ -10208,7 +10213,7 @@
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>76</v>
@@ -10285,7 +10290,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10311,10 +10316,10 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>268</v>
@@ -10402,7 +10407,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10428,7 +10433,7 @@
         <v>167</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>274</v>
@@ -10521,7 +10526,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10640,7 +10645,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10759,7 +10764,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>320</v>
@@ -10825,7 +10830,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10878,7 +10883,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10993,7 +10998,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11110,7 +11115,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11229,7 +11234,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11346,7 +11351,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11465,7 +11470,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11584,7 +11589,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11703,10 +11708,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>76</v>
@@ -11750,7 +11755,7 @@
         <v>76</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>76</v>
@@ -11824,7 +11829,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11939,7 +11944,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12056,7 +12061,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12175,7 +12180,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12292,7 +12297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12411,7 +12416,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12530,7 +12535,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12649,7 +12654,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12768,7 +12773,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12794,13 +12799,13 @@
         <v>218</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12829,10 +12834,10 @@
         <v>157</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -12850,7 +12855,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12868,24 +12873,24 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13000,7 +13005,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13117,7 +13122,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13189,7 +13194,7 @@
         <v>76</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
@@ -13234,10 +13239,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
@@ -13355,7 +13360,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13470,7 +13475,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13587,7 +13592,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13632,7 +13637,7 @@
         <v>76</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>76</v>
@@ -13706,7 +13711,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13823,7 +13828,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13942,7 +13947,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14061,7 +14066,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14180,7 +14185,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14299,11 +14304,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14322,19 +14327,19 @@
         <v>88</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -14383,7 +14388,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>87</v>
@@ -14395,22 +14400,22 @@
         <v>99</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>76</v>
@@ -14418,7 +14423,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14441,16 +14446,16 @@
         <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14500,7 +14505,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14512,22 +14517,22 @@
         <v>99</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>76</v>
@@ -14535,7 +14540,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14558,16 +14563,16 @@
         <v>88</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14605,17 +14610,17 @@
         <v>76</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AB106" s="2"/>
       <c r="AC106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14630,19 +14635,19 @@
         <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>76</v>
@@ -14650,10 +14655,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>76</v>
@@ -14675,16 +14680,16 @@
         <v>88</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14734,7 +14739,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14749,19 +14754,19 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>76</v>
@@ -14769,7 +14774,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14884,7 +14889,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15001,7 +15006,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15024,16 +15029,16 @@
         <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15083,7 +15088,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15092,7 +15097,7 @@
         <v>87</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>100</v>
@@ -15104,10 +15109,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -15118,7 +15123,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15233,7 +15238,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15350,10 +15355,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>108</v>
@@ -15375,13 +15380,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>112</v>
@@ -15469,7 +15474,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15492,13 +15497,13 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15549,7 +15554,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15584,7 +15589,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15607,23 +15612,23 @@
         <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P115" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q115" t="s" s="2">
         <v>76</v>
@@ -15668,7 +15673,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15677,7 +15682,7 @@
         <v>87</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>100</v>
@@ -15689,10 +15694,10 @@
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>76</v>
@@ -15703,7 +15708,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15818,7 +15823,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15935,10 +15940,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>108</v>
@@ -15960,13 +15965,13 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>112</v>
@@ -16054,7 +16059,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16077,13 +16082,13 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16134,7 +16139,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16169,10 +16174,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>76</v>
@@ -16194,16 +16199,16 @@
         <v>88</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16253,7 +16258,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16268,19 +16273,19 @@
         <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>76</v>
@@ -16288,7 +16293,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16311,16 +16316,16 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16370,7 +16375,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16379,7 +16384,7 @@
         <v>87</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>100</v>
@@ -16394,10 +16399,10 @@
         <v>76</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>76</v>
@@ -16405,7 +16410,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16428,13 +16433,13 @@
         <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16485,7 +16490,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16506,13 +16511,13 @@
         <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>76</v>
@@ -16520,7 +16525,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16543,16 +16548,16 @@
         <v>88</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16602,7 +16607,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16614,7 +16619,7 @@
         <v>99</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
@@ -16626,10 +16631,10 @@
         <v>76</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>76</v>
@@ -16637,7 +16642,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16660,16 +16665,16 @@
         <v>88</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16719,7 +16724,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16731,7 +16736,7 @@
         <v>99</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
@@ -16740,13 +16745,13 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>76</v>
@@ -16754,7 +16759,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16777,13 +16782,13 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16834,7 +16839,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16846,7 +16851,7 @@
         <v>99</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16858,7 +16863,7 @@
         <v>76</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>76</v>
@@ -16869,7 +16874,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16984,7 +16989,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17101,11 +17106,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17127,10 +17132,10 @@
         <v>109</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>112</v>
@@ -17185,7 +17190,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -17220,7 +17225,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17246,10 +17251,10 @@
         <v>218</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>337</v>
@@ -17281,10 +17286,10 @@
         <v>157</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -17302,7 +17307,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17311,7 +17316,7 @@
         <v>87</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>100</v>
@@ -17320,13 +17325,13 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>76</v>
@@ -17337,7 +17342,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17360,16 +17365,16 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17419,7 +17424,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -17428,10 +17433,10 @@
         <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
@@ -17443,7 +17448,7 @@
         <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>76</v>
@@ -17454,7 +17459,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17480,10 +17485,10 @@
         <v>218</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>337</v>
@@ -17515,10 +17520,10 @@
         <v>157</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17536,7 +17541,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17557,10 +17562,10 @@
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>76</v>
@@ -17571,7 +17576,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17594,16 +17599,16 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17653,7 +17658,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17665,7 +17670,7 @@
         <v>99</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>76</v>
@@ -17677,7 +17682,7 @@
         <v>76</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>76</v>
@@ -17688,7 +17693,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17803,7 +17808,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17920,11 +17925,11 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17946,10 +17951,10 @@
         <v>109</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>112</v>
@@ -18004,7 +18009,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18039,7 +18044,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18065,10 +18070,10 @@
         <v>218</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>337</v>
@@ -18100,10 +18105,10 @@
         <v>157</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -18121,7 +18126,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -18130,25 +18135,25 @@
         <v>78</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>313</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>76</v>
@@ -18156,7 +18161,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18179,16 +18184,16 @@
         <v>88</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18238,7 +18243,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -18247,10 +18252,10 @@
         <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>76</v>
@@ -18262,10 +18267,10 @@
         <v>76</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>76</v>
@@ -18273,7 +18278,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18296,16 +18301,16 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18355,7 +18360,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18370,16 +18375,16 @@
         <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-fungal-infection.xlsx
+++ b/StructureDefinition-fungal-infection.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$145</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5443" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -1014,14 +1014,35 @@
     <t>Condition.category.coding</t>
   </si>
   <si>
-    <t>sct</t>
+    <t>infectiousDiseases</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
-  &lt;code value="3218000"/&gt;
-  &lt;display value="Mycosis (disorder)"/&gt;
+  &lt;code value="394807007"/&gt;
+  &lt;display value="Infectious diseases (specialty) (qualifier value)"/&gt;
 &lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.system</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.version</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.display</t>
+  </si>
+  <si>
+    <t>Condition.category.coding.userSelected</t>
   </si>
   <si>
     <t>Condition.category.text</t>
@@ -1239,6 +1260,9 @@
   </si>
   <si>
     <t>Der Alpha-ID-Code</t>
+  </si>
+  <si>
+    <t>sct</t>
   </si>
   <si>
     <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/fungal-infections</t>
@@ -2111,7 +2135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO138"/>
+  <dimension ref="A1:AO145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7226,7 +7250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>308</v>
       </c>
@@ -7236,13 +7260,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -7835,23 +7859,19 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7911,7 +7931,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7920,10 +7940,10 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7938,14 +7958,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7957,16 +7977,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>112</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7992,70 +8012,70 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8074,19 +8094,19 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -8111,13 +8131,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -8135,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8144,33 +8164,33 @@
         <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>343</v>
+        <v>263</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8190,18 +8210,20 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -8250,7 +8272,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8262,7 +8284,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -8271,10 +8293,10 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -8283,43 +8305,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8355,31 +8377,31 @@
         <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -8388,10 +8410,10 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8402,7 +8424,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8410,13 +8432,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8425,19 +8447,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8474,26 +8494,28 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>100</v>
@@ -8505,10 +8527,10 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8517,13 +8539,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8535,7 +8555,7 @@
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8544,19 +8564,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8566,7 +8586,7 @@
         <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>76</v>
@@ -8581,11 +8601,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8603,16 +8625,16 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>100</v>
@@ -8624,10 +8646,10 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8638,7 +8660,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8658,19 +8680,23 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8718,7 +8744,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8730,7 +8756,7 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8739,10 +8765,10 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8753,18 +8779,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8776,16 +8802,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>111</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>112</v>
+        <v>333</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8811,76 +8837,74 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
@@ -8892,21 +8916,23 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8930,13 +8956,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -8954,48 +8980,46 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9005,7 +9029,7 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -9014,17 +9038,15 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -9073,19 +9095,19 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -9097,7 +9119,7 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -9106,13 +9128,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>108</v>
       </c>
@@ -9121,10 +9141,10 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -9133,13 +9153,13 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>112</v>
@@ -9180,16 +9200,16 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>116</v>
@@ -9225,9 +9245,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9238,7 +9258,7 @@
         <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -9250,26 +9270,26 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>76</v>
@@ -9299,25 +9319,23 @@
         <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>99</v>
@@ -9332,10 +9350,10 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -9346,15 +9364,17 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
@@ -9369,18 +9389,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>246</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -9389,7 +9411,7 @@
         <v>76</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>76</v>
@@ -9404,13 +9426,11 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -9428,13 +9448,13 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>99</v>
@@ -9449,10 +9469,10 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -9461,9 +9481,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9471,35 +9491,31 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9511,7 +9527,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9547,7 +9563,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9556,10 +9572,10 @@
         <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -9568,10 +9584,10 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9582,18 +9598,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -9602,23 +9618,21 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9654,31 +9668,31 @@
         <v>76</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
@@ -9687,10 +9701,10 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9699,13 +9713,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9715,29 +9731,27 @@
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9785,19 +9799,19 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -9806,10 +9820,10 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9820,13 +9834,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9842,23 +9856,21 @@
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9882,11 +9894,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9904,7 +9918,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9916,7 +9930,7 @@
         <v>99</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9925,10 +9939,10 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9937,13 +9951,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="C67" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9953,7 +9969,7 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9962,15 +9978,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>367</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -10019,19 +10037,19 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -10043,7 +10061,7 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -10052,49 +10070,51 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>76</v>
@@ -10124,31 +10144,31 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -10157,10 +10177,10 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10171,7 +10191,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10194,26 +10214,24 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>76</v>
@@ -10255,7 +10273,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10276,10 +10294,10 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -10288,9 +10306,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10304,7 +10322,7 @@
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -10313,18 +10331,20 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -10336,7 +10356,7 @@
         <v>76</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>76</v>
@@ -10372,7 +10392,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10384,7 +10404,7 @@
         <v>99</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>382</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
@@ -10393,10 +10413,10 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10405,9 +10425,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10415,13 +10435,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -10430,19 +10450,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>275</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -10491,7 +10511,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10512,10 +10532,10 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10526,7 +10546,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10549,19 +10569,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -10610,7 +10630,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10631,10 +10651,10 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10643,11 +10663,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10659,7 +10681,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10668,19 +10690,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10690,7 +10712,7 @@
         <v>76</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -10705,13 +10727,11 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10729,13 +10749,13 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>99</v>
@@ -10750,10 +10770,10 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10762,13 +10782,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10780,29 +10798,25 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10811,7 +10825,7 @@
         <v>76</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>76</v>
@@ -10826,11 +10840,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10848,19 +10864,19 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
@@ -10869,10 +10885,10 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10883,18 +10899,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10906,15 +10922,17 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10951,31 +10969,31 @@
         <v>76</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
@@ -10987,7 +11005,7 @@
         <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10996,49 +11014,51 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>76</v>
@@ -11068,31 +11088,31 @@
         <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -11101,10 +11121,10 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -11113,9 +11133,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11129,7 +11149,7 @@
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -11138,20 +11158,18 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -11199,7 +11217,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11220,10 +11238,10 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -11232,9 +11250,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11242,13 +11260,13 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -11257,18 +11275,20 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>266</v>
+        <v>393</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -11316,7 +11336,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11337,10 +11357,10 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -11349,9 +11369,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11359,13 +11379,13 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11374,19 +11394,19 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>275</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11435,7 +11455,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11456,10 +11476,10 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>
@@ -11470,7 +11490,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11493,19 +11513,19 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -11554,7 +11574,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11575,10 +11595,10 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>76</v>
@@ -11587,23 +11607,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -11612,19 +11634,19 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11634,7 +11656,7 @@
         <v>76</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>76</v>
@@ -11649,13 +11671,11 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -11673,13 +11693,13 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>99</v>
@@ -11694,10 +11714,10 @@
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>76</v>
@@ -11706,13 +11726,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11724,29 +11742,25 @@
         <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11755,7 +11769,7 @@
         <v>76</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>76</v>
@@ -11794,19 +11808,19 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
@@ -11815,10 +11829,10 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>76</v>
@@ -11829,18 +11843,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -11852,15 +11866,17 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11897,31 +11913,31 @@
         <v>76</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -11933,7 +11949,7 @@
         <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11942,43 +11958,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
       </c>
@@ -12014,31 +12032,31 @@
         <v>76</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
@@ -12047,10 +12065,10 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -12059,9 +12077,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12069,13 +12087,13 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -12084,20 +12102,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
       </c>
@@ -12145,7 +12161,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12166,10 +12182,10 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>76</v>
@@ -12178,9 +12194,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12188,13 +12204,13 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -12203,18 +12219,20 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>76</v>
       </c>
@@ -12262,7 +12280,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12283,10 +12301,10 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>76</v>
@@ -12295,9 +12313,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12305,13 +12323,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -12320,19 +12338,19 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>275</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -12381,7 +12399,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12402,10 +12420,10 @@
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>76</v>
@@ -12416,7 +12434,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12439,19 +12457,19 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12500,7 +12518,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12521,10 +12539,10 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12533,11 +12551,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>76</v>
       </c>
@@ -12549,7 +12569,7 @@
         <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -12558,19 +12578,19 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12580,7 +12600,7 @@
         <v>76</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>76</v>
@@ -12619,13 +12639,13 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>99</v>
@@ -12640,10 +12660,10 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12654,7 +12674,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12674,23 +12694,19 @@
         <v>76</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12738,7 +12754,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12747,10 +12763,10 @@
         <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -12759,10 +12775,10 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12771,13 +12787,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12787,25 +12803,25 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>392</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>393</v>
+        <v>111</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>394</v>
+        <v>112</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12831,31 +12847,31 @@
         <v>76</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>391</v>
+        <v>116</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12867,30 +12883,30 @@
         <v>99</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12898,31 +12914,35 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12970,7 +12990,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12979,10 +12999,10 @@
         <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
@@ -12991,10 +13011,10 @@
         <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -13005,18 +13025,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>76</v>
@@ -13025,19 +13045,19 @@
         <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13075,31 +13095,31 @@
         <v>76</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
@@ -13108,10 +13128,10 @@
         <v>76</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>76</v>
@@ -13120,9 +13140,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13133,7 +13153,7 @@
         <v>87</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13145,19 +13165,19 @@
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13194,23 +13214,25 @@
         <v>76</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AB94" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>99</v>
@@ -13225,10 +13247,10 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>76</v>
@@ -13237,25 +13259,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -13264,19 +13284,19 @@
         <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>76</v>
@@ -13325,13 +13345,13 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>99</v>
@@ -13346,10 +13366,10 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>76</v>
@@ -13360,7 +13380,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13380,19 +13400,23 @@
         <v>76</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13440,7 +13464,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13449,10 +13473,10 @@
         <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
@@ -13461,10 +13485,10 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>106</v>
+        <v>295</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>76</v>
@@ -13475,18 +13499,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -13495,21 +13519,23 @@
         <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13545,31 +13571,31 @@
         <v>76</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -13578,10 +13604,10 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13592,7 +13618,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13600,10 +13626,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>88</v>
@@ -13615,20 +13641,18 @@
         <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13637,7 +13661,7 @@
         <v>76</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>76</v>
@@ -13652,13 +13676,13 @@
         <v>76</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -13676,13 +13700,13 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>99</v>
@@ -13694,24 +13718,24 @@
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13731,20 +13755,18 @@
         <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>76</v>
@@ -13793,7 +13815,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13802,10 +13824,10 @@
         <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -13814,10 +13836,10 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>76</v>
@@ -13828,18 +13850,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13848,23 +13870,21 @@
         <v>76</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>76</v>
       </c>
@@ -13900,31 +13920,31 @@
         <v>76</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13933,10 +13953,10 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>76</v>
@@ -13947,7 +13967,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13955,13 +13975,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -13970,19 +13990,19 @@
         <v>88</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>76</v>
@@ -14019,25 +14039,23 @@
         <v>76</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>99</v>
@@ -14052,10 +14070,10 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>76</v>
@@ -14064,23 +14082,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -14089,19 +14109,19 @@
         <v>88</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -14150,13 +14170,13 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>99</v>
@@ -14171,10 +14191,10 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>76</v>
@@ -14205,23 +14225,19 @@
         <v>76</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>76</v>
       </c>
@@ -14269,7 +14285,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14278,10 +14294,10 @@
         <v>87</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
@@ -14290,10 +14306,10 @@
         <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -14302,45 +14318,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>415</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>416</v>
+        <v>108</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>418</v>
+        <v>110</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>419</v>
+        <v>111</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -14376,46 +14390,46 @@
         <v>76</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>76</v>
@@ -14423,7 +14437,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14431,7 +14445,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>87</v>
@@ -14446,18 +14460,20 @@
         <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>428</v>
+        <v>131</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14466,7 +14482,7 @@
         <v>76</v>
       </c>
       <c r="R105" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>76</v>
@@ -14505,7 +14521,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>427</v>
+        <v>262</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14517,22 +14533,22 @@
         <v>99</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>422</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>430</v>
+        <v>263</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>431</v>
+        <v>264</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>76</v>
@@ -14540,7 +14556,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14554,7 +14570,7 @@
         <v>87</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>76</v>
@@ -14563,16 +14579,16 @@
         <v>88</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>434</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>435</v>
+        <v>266</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>436</v>
+        <v>267</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>437</v>
+        <v>268</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14610,17 +14626,19 @@
         <v>76</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AB106" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>433</v>
+        <v>269</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14635,43 +14653,41 @@
         <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>441</v>
+        <v>270</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>442</v>
+        <v>271</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>76</v>
@@ -14680,18 +14696,20 @@
         <v>88</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>445</v>
+        <v>167</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>435</v>
+        <v>273</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>436</v>
+        <v>274</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14739,7 +14757,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14754,19 +14772,19 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>441</v>
+        <v>278</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>442</v>
+        <v>279</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>76</v>
@@ -14774,7 +14792,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14794,19 +14812,23 @@
         <v>76</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
       </c>
@@ -14854,7 +14876,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14863,10 +14885,10 @@
         <v>87</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14875,10 +14897,10 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>76</v>
@@ -14889,18 +14911,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14909,21 +14931,23 @@
         <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14959,31 +14983,31 @@
         <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14992,10 +15016,10 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>76</v>
@@ -15004,9 +15028,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15020,7 +15044,7 @@
         <v>87</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -15029,18 +15053,20 @@
         <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>451</v>
+        <v>302</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -15088,7 +15114,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15097,7 +15123,7 @@
         <v>87</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>454</v>
+        <v>99</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>100</v>
@@ -15109,10 +15135,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>455</v>
+        <v>306</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -15121,41 +15147,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
       </c>
@@ -15203,74 +15233,74 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>106</v>
+        <v>433</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>112</v>
+        <v>428</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15308,60 +15338,58 @@
         <v>76</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>117</v>
+        <v>430</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>101</v>
+        <v>439</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15377,19 +15405,19 @@
         <v>76</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>112</v>
+        <v>445</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15427,56 +15455,56 @@
         <v>76</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>116</v>
+        <v>441</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15488,24 +15516,26 @@
         <v>87</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>76</v>
@@ -15554,7 +15584,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15563,33 +15593,33 @@
         <v>87</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15603,33 +15633,29 @@
         <v>87</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>465</v>
+        <v>103</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P115" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15673,7 +15699,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15682,10 +15708,10 @@
         <v>87</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -15694,10 +15720,10 @@
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>471</v>
+        <v>106</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>76</v>
@@ -15708,18 +15734,18 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>76</v>
@@ -15731,15 +15757,17 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15776,31 +15804,31 @@
         <v>76</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>76</v>
@@ -15812,7 +15840,7 @@
         <v>76</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>76</v>
@@ -15821,41 +15849,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>109</v>
+        <v>457</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>111</v>
+        <v>459</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15893,31 +15921,31 @@
         <v>76</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>116</v>
+        <v>461</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>99</v>
+        <v>462</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>76</v>
@@ -15926,10 +15954,10 @@
         <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>101</v>
+        <v>464</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>76</v>
@@ -15938,15 +15966,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15956,7 +15982,7 @@
         <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>76</v>
@@ -15965,17 +15991,15 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>460</v>
+        <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -16024,19 +16048,19 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>76</v>
@@ -16048,7 +16072,7 @@
         <v>76</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>76</v>
@@ -16059,18 +16083,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
@@ -16082,15 +16106,17 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>462</v>
+        <v>110</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -16127,31 +16153,31 @@
         <v>76</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>463</v>
+        <v>116</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
@@ -16163,7 +16189,7 @@
         <v>76</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>76</v>
@@ -16174,13 +16200,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16196,19 +16222,19 @@
         <v>76</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16258,34 +16284,34 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>433</v>
+        <v>116</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>442</v>
+        <v>101</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>76</v>
@@ -16293,7 +16319,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16316,17 +16342,15 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -16375,7 +16399,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16384,10 +16408,10 @@
         <v>87</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>482</v>
+        <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>76</v>
@@ -16399,10 +16423,10 @@
         <v>76</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>483</v>
+        <v>76</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>76</v>
@@ -16410,7 +16434,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16418,7 +16442,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>87</v>
@@ -16433,20 +16457,24 @@
         <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="Q122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16490,7 +16518,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16499,7 +16527,7 @@
         <v>87</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>99</v>
+        <v>462</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
@@ -16511,13 +16539,13 @@
         <v>76</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>490</v>
+        <v>76</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>76</v>
@@ -16525,7 +16553,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16545,20 +16573,18 @@
         <v>76</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>492</v>
+        <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>493</v>
+        <v>103</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16607,7 +16633,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16616,10 +16642,10 @@
         <v>87</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>495</v>
+        <v>76</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>76</v>
@@ -16631,10 +16657,10 @@
         <v>76</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>496</v>
+        <v>106</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>76</v>
@@ -16642,18 +16668,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>76</v>
@@ -16662,19 +16688,19 @@
         <v>76</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>492</v>
+        <v>109</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>420</v>
+        <v>112</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16712,31 +16738,31 @@
         <v>76</v>
       </c>
       <c r="AA124" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD124" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>498</v>
+        <v>116</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>495</v>
+        <v>117</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>76</v>
@@ -16745,35 +16771,37 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>502</v>
+        <v>101</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>503</v>
+        <v>76</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B125" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="C125" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>76</v>
@@ -16782,15 +16810,17 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>506</v>
+        <v>367</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16839,7 +16869,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>504</v>
+        <v>116</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16851,7 +16881,7 @@
         <v>99</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>508</v>
+        <v>117</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>76</v>
@@ -16863,7 +16893,7 @@
         <v>76</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>509</v>
+        <v>101</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>76</v>
@@ -16874,7 +16904,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16897,13 +16927,13 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>104</v>
+        <v>470</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16954,7 +16984,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -16978,7 +17008,7 @@
         <v>76</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>76</v>
@@ -16987,41 +17017,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="C127" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>109</v>
+        <v>457</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>112</v>
+        <v>445</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17059,46 +17091,46 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>116</v>
+        <v>441</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>76</v>
@@ -17106,43 +17138,41 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>76</v>
       </c>
@@ -17190,19 +17220,19 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>99</v>
+        <v>490</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
@@ -17214,18 +17244,18 @@
         <v>76</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>101</v>
+        <v>491</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>76</v>
+        <v>492</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17233,32 +17263,30 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>218</v>
+        <v>457</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -17283,13 +17311,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>521</v>
+        <v>76</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -17307,7 +17335,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17316,7 +17344,7 @@
         <v>87</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>522</v>
+        <v>99</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>100</v>
@@ -17325,16 +17353,16 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>228</v>
+        <v>496</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>344</v>
+        <v>497</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>76</v>
+        <v>498</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>76</v>
@@ -17342,7 +17370,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17353,7 +17381,7 @@
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
@@ -17362,19 +17390,19 @@
         <v>76</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17424,19 +17452,19 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>522</v>
+        <v>99</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>76</v>
@@ -17448,10 +17476,10 @@
         <v>76</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>76</v>
@@ -17459,7 +17487,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17479,19 +17507,19 @@
         <v>76</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>218</v>
+        <v>500</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17517,13 +17545,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>532</v>
+        <v>76</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>533</v>
+        <v>76</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -17541,7 +17569,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17553,7 +17581,7 @@
         <v>99</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>100</v>
+        <v>503</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
@@ -17562,13 +17590,13 @@
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>76</v>
+        <v>511</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>76</v>
@@ -17576,7 +17604,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17599,17 +17627,15 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -17658,7 +17684,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -17670,7 +17696,7 @@
         <v>99</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>76</v>
@@ -17682,7 +17708,7 @@
         <v>76</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>76</v>
@@ -17693,7 +17719,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17808,7 +17834,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17925,11 +17951,11 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17951,10 +17977,10 @@
         <v>109</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>112</v>
@@ -18009,7 +18035,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18044,7 +18070,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18055,7 +18081,7 @@
         <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>76</v>
@@ -18064,19 +18090,19 @@
         <v>76</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>218</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18105,10 +18131,10 @@
         <v>157</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -18126,34 +18152,34 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>550</v>
+        <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>313</v>
+        <v>531</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>76</v>
@@ -18161,7 +18187,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18181,19 +18207,19 @@
         <v>76</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18243,7 +18269,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
@@ -18252,10 +18278,10 @@
         <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>76</v>
@@ -18267,18 +18293,18 @@
         <v>76</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18289,10 +18315,10 @@
         <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>76</v>
@@ -18301,16 +18327,16 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>558</v>
+        <v>218</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>561</v>
+        <v>344</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18336,13 +18362,13 @@
         <v>76</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>76</v>
+        <v>540</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>76</v>
+        <v>541</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>76</v>
@@ -18360,13 +18386,13 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>99</v>
@@ -18375,26 +18401,845 @@
         <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J144" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AK138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL138" t="s" s="2">
+      <c r="K144" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AM138" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AN138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO138" t="s" s="2">
+      <c r="M144" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO138">
+  <autoFilter ref="A1:AO145">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18404,7 +19249,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI137">
+  <conditionalFormatting sqref="A2:AI144">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
